--- a/Eye_Tracker_Raw_Data/LookTime/250ms/no_labels/Implicit Memory/Tadpole_ET_summary_IR_250ms_NoLabels_1.50-1.75.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/250ms/no_labels/Implicit Memory/Tadpole_ET_summary_IR_250ms_NoLabels_1.50-1.75.xlsx
@@ -50,7 +50,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -355,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO89"/>
+  <dimension ref="A1:BI95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10323,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>118</v>
       </c>
@@ -10448,7 +10449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>121</v>
       </c>
@@ -10573,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>123</v>
       </c>
@@ -10698,7 +10699,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>124</v>
       </c>
@@ -10823,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>125</v>
       </c>
@@ -10948,7 +10949,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>128</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>126</v>
       </c>
@@ -11198,7 +11199,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>127</v>
       </c>
@@ -11323,7 +11324,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>129</v>
       </c>
@@ -11447,6 +11448,916 @@
       <c r="AO89" s="2">
         <v>0.25</v>
       </c>
+    </row>
+    <row r="90" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>130</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
+      </c>
+      <c r="L90" s="3">
+        <v>0</v>
+      </c>
+      <c r="M90" s="3">
+        <v>0</v>
+      </c>
+      <c r="N90" s="3">
+        <v>0</v>
+      </c>
+      <c r="O90" s="3">
+        <v>0</v>
+      </c>
+      <c r="P90" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>0</v>
+      </c>
+      <c r="R90" s="3">
+        <v>0</v>
+      </c>
+      <c r="S90" s="3">
+        <v>0</v>
+      </c>
+      <c r="T90" s="3">
+        <v>0</v>
+      </c>
+      <c r="U90" s="3">
+        <v>0</v>
+      </c>
+      <c r="V90" s="3">
+        <v>0</v>
+      </c>
+      <c r="W90" s="3">
+        <v>0</v>
+      </c>
+      <c r="X90" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="Y90" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AD90" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="AE90" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AF90" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AG90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="AI90" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="AJ90" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AK90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN90" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS90" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AT90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU90" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AV90" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="AW90" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AX90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY90" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AZ90" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="BA90" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB90" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="BC90" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD90" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="BE90" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF90" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="BG90" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH90" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI90" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>131</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP91" s="3"/>
+      <c r="AQ91" s="3"/>
+      <c r="AR91" s="3"/>
+      <c r="AS91" s="3"/>
+      <c r="AT91" s="3"/>
+      <c r="AU91" s="3"/>
+      <c r="AV91" s="3"/>
+      <c r="AW91" s="3"/>
+      <c r="AX91" s="3"/>
+      <c r="AY91" s="3"/>
+      <c r="AZ91" s="3"/>
+      <c r="BA91" s="3"/>
+      <c r="BB91" s="3"/>
+      <c r="BC91" s="3"/>
+      <c r="BD91" s="3"/>
+      <c r="BE91" s="3"/>
+      <c r="BF91" s="3"/>
+      <c r="BG91" s="3"/>
+      <c r="BH91" s="3"/>
+      <c r="BI91" s="3"/>
+    </row>
+    <row r="92" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>132</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI92" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AJ92" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="AK92" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AL92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM92" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AN92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO92" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AP92" s="3"/>
+      <c r="AQ92" s="3"/>
+      <c r="AR92" s="3"/>
+      <c r="AS92" s="3"/>
+      <c r="AT92" s="3"/>
+      <c r="AU92" s="3"/>
+      <c r="AV92" s="3"/>
+      <c r="AW92" s="3"/>
+      <c r="AX92" s="3"/>
+      <c r="AY92" s="3"/>
+      <c r="AZ92" s="3"/>
+      <c r="BA92" s="3"/>
+      <c r="BB92" s="3"/>
+      <c r="BC92" s="3"/>
+      <c r="BD92" s="3"/>
+      <c r="BE92" s="3"/>
+      <c r="BF92" s="3"/>
+      <c r="BG92" s="3"/>
+      <c r="BH92" s="3"/>
+      <c r="BI92" s="3"/>
+    </row>
+    <row r="93" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>133</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AK93" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="AL93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AO93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP93" s="3"/>
+      <c r="AQ93" s="3"/>
+      <c r="AR93" s="3"/>
+      <c r="AS93" s="3"/>
+      <c r="AT93" s="3"/>
+      <c r="AU93" s="3"/>
+      <c r="AV93" s="3"/>
+      <c r="AW93" s="3"/>
+      <c r="AX93" s="3"/>
+      <c r="AY93" s="3"/>
+      <c r="AZ93" s="3"/>
+      <c r="BA93" s="3"/>
+      <c r="BB93" s="3"/>
+      <c r="BC93" s="3"/>
+      <c r="BD93" s="3"/>
+      <c r="BE93" s="3"/>
+      <c r="BF93" s="3"/>
+      <c r="BG93" s="3"/>
+      <c r="BH93" s="3"/>
+      <c r="BI93" s="3"/>
+    </row>
+    <row r="94" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>134</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AH94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AJ94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AK94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AM94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO94" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AP94" s="3"/>
+      <c r="AQ94" s="3"/>
+      <c r="AR94" s="3"/>
+      <c r="AS94" s="3"/>
+      <c r="AT94" s="3"/>
+      <c r="AU94" s="3"/>
+      <c r="AV94" s="3"/>
+      <c r="AW94" s="3"/>
+      <c r="AX94" s="3"/>
+      <c r="AY94" s="3"/>
+      <c r="AZ94" s="3"/>
+      <c r="BA94" s="3"/>
+      <c r="BB94" s="3"/>
+      <c r="BC94" s="3"/>
+      <c r="BD94" s="3"/>
+      <c r="BE94" s="3"/>
+      <c r="BF94" s="3"/>
+      <c r="BG94" s="3"/>
+      <c r="BH94" s="3"/>
+      <c r="BI94" s="3"/>
+    </row>
+    <row r="95" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>135</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0</v>
+      </c>
+      <c r="H95" s="3">
+        <v>0</v>
+      </c>
+      <c r="I95" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="L95" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0</v>
+      </c>
+      <c r="N95" s="3">
+        <v>0</v>
+      </c>
+      <c r="O95" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="P95" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="R95" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="S95" s="3">
+        <v>0</v>
+      </c>
+      <c r="T95" s="3">
+        <v>0</v>
+      </c>
+      <c r="U95" s="3">
+        <v>0</v>
+      </c>
+      <c r="V95" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="W95" s="3">
+        <v>0</v>
+      </c>
+      <c r="X95" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="Z95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AB95" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="AC95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="AI95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK95" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AL95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM95" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="AN95" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AO95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP95" s="3"/>
+      <c r="AQ95" s="3"/>
+      <c r="AR95" s="3"/>
+      <c r="AS95" s="3"/>
+      <c r="AT95" s="3"/>
+      <c r="AU95" s="3"/>
+      <c r="AV95" s="3"/>
+      <c r="AW95" s="3"/>
+      <c r="AX95" s="3"/>
+      <c r="AY95" s="3"/>
+      <c r="AZ95" s="3"/>
+      <c r="BA95" s="3"/>
+      <c r="BB95" s="3"/>
+      <c r="BC95" s="3"/>
+      <c r="BD95" s="3"/>
+      <c r="BE95" s="3"/>
+      <c r="BF95" s="3"/>
+      <c r="BG95" s="3"/>
+      <c r="BH95" s="3"/>
+      <c r="BI95" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
